--- a/data/results/quantile/Test_output_11.xlsx
+++ b/data/results/quantile/Test_output_11.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2911,7 +2911,7 @@
         <v>0.1729605196396272</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4788095555616924</v>
+        <v>0.4788036375903088</v>
       </c>
       <c r="D108" t="n">
         <v>0.9004958330664748</v>
@@ -2934,7 +2934,7 @@
         <v>0.4912812321556751</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7200054101777277</v>
+        <v>0.7205776404804063</v>
       </c>
       <c r="D109" t="n">
         <v>0.9006234906497808</v>
@@ -2954,22 +2954,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5187989439561322</v>
+        <v>0.5067405347015348</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4407783296996344</v>
+        <v>0.4408583928608421</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3203190795653292</v>
+        <v>0.3231805791495266</v>
       </c>
       <c r="E110" t="n">
         <v>0.41194456741871</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7316368554174624</v>
+        <v>0.7116608214060918</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4108291409606158</v>
+        <v>0.4050956645130179</v>
       </c>
     </row>
     <row r="111">
@@ -2977,22 +2977,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6072583004862556</v>
+        <v>0.6136067456103558</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2385512535541171</v>
+        <v>0.2380895337757805</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3653496466080874</v>
+        <v>0.3853521558702156</v>
       </c>
       <c r="E111" t="n">
         <v>0.4778947270007299</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4972531283264582</v>
+        <v>0.505691257168706</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6574555153282704</v>
+        <v>0.6068012470591349</v>
       </c>
     </row>
     <row r="112">
@@ -3000,22 +3000,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5461909734683533</v>
+        <v>0.5407484419170193</v>
       </c>
       <c r="C112" t="n">
-        <v>0.376368455541707</v>
+        <v>0.3762966393372013</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2749498206126235</v>
+        <v>0.3941300769568271</v>
       </c>
       <c r="E112" t="n">
         <v>0.5822621148469829</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5219787447011037</v>
+        <v>0.5109893701247707</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5155194934331403</v>
+        <v>0.4369694991062381</v>
       </c>
     </row>
     <row r="113">
@@ -3023,22 +3023,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5291013884208167</v>
+        <v>0.5181173847777165</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4823994800620801</v>
+        <v>0.4825582589828875</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4214084375514264</v>
+        <v>0.5207358101375408</v>
       </c>
       <c r="E113" t="n">
         <v>0.3107974084094954</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5015059859748709</v>
+        <v>0.5064971372569351</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5495261895919651</v>
+        <v>0.5036727344695263</v>
       </c>
     </row>
     <row r="114">
@@ -3046,22 +3046,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5114512351787941</v>
+        <v>0.5041664630759265</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6579347883846554</v>
+        <v>0.6583633805244409</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3655936900208115</v>
+        <v>0.5537686797458071</v>
       </c>
       <c r="E114" t="n">
         <v>0.8789615239620603</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6293206288584192</v>
+        <v>0.6029153421138682</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8587098542359546</v>
+        <v>0.6404536619175035</v>
       </c>
     </row>
     <row r="115">
@@ -3069,22 +3069,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6046057885393216</v>
+        <v>0.6130404436463217</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4771466157550661</v>
+        <v>0.477351892888929</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6139653732371007</v>
+        <v>0.4170349912057806</v>
       </c>
       <c r="E115" t="n">
         <v>0.1810685369693951</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4829698412560636</v>
+        <v>0.4993625562289675</v>
       </c>
       <c r="G115" t="n">
-        <v>0.7088444934276406</v>
+        <v>0.5609468379639571</v>
       </c>
     </row>
     <row r="116">
@@ -3092,22 +3092,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5077718498002445</v>
+        <v>0.4976188449129689</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1880393633985397</v>
+        <v>0.1875614891637655</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3208044809744272</v>
+        <v>0.5244499633128594</v>
       </c>
       <c r="E116" t="n">
         <v>0.2940205150749525</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4289289452722505</v>
+        <v>0.443516614956843</v>
       </c>
       <c r="G116" t="n">
-        <v>0.7222567317195059</v>
+        <v>0.5922014667708351</v>
       </c>
     </row>
     <row r="117">
@@ -3115,22 +3115,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5116636628118928</v>
+        <v>0.5047535157131469</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1649281871001759</v>
+        <v>0.1645978947461036</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6184635314249635</v>
+        <v>0.3720973683395387</v>
       </c>
       <c r="E117" t="n">
         <v>0.4462639348573184</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6126835457879631</v>
+        <v>0.618267981024714</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.0479498644776226</v>
+        <v>0.244748291960075</v>
       </c>
     </row>
     <row r="118">
@@ -3138,22 +3138,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6470314009284849</v>
+        <v>0.6634927709290466</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4793160662977676</v>
+        <v>0.4797072148180831</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2488737581993925</v>
+        <v>0.5833807463648806</v>
       </c>
       <c r="E118" t="n">
         <v>0.7976744528457572</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6404758339651738</v>
+        <v>0.6180093370444358</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9915688202020387</v>
+        <v>0.6765320981377041</v>
       </c>
     </row>
     <row r="119">
@@ -3161,22 +3161,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5452154381002255</v>
+        <v>0.5461429981107907</v>
       </c>
       <c r="C119" t="n">
-        <v>0.527727755925082</v>
+        <v>0.5278716011872111</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5587401206088742</v>
+        <v>0.7822062782222784</v>
       </c>
       <c r="E119" t="n">
         <v>0.6131060162630924</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4688075614547976</v>
+        <v>0.4689883082145389</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2694545043190089</v>
+        <v>0.4614142374200061</v>
       </c>
     </row>
     <row r="120">
@@ -3184,22 +3184,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5816678191820146</v>
+        <v>0.5823329860938175</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4325001833080025</v>
+        <v>0.4326208034423887</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4158594214955769</v>
+        <v>0.769258181166126</v>
       </c>
       <c r="E120" t="n">
         <v>0.5152578085207764</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3946239517145845</v>
+        <v>0.4068889042809619</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4471279380757298</v>
+        <v>0.4720603684236266</v>
       </c>
     </row>
     <row r="121">
@@ -3207,22 +3207,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5229823661261931</v>
+        <v>0.5191950278712303</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2062181625050865</v>
+        <v>0.2056592518297056</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7164177073740727</v>
+        <v>0.531609114880461</v>
       </c>
       <c r="E121" t="n">
         <v>0.6279653935672939</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5250904866503091</v>
+        <v>0.5442875865221478</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4083483915786142</v>
+        <v>0.3705589836805132</v>
       </c>
     </row>
   </sheetData>
